--- a/projects.xlsx
+++ b/projects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="96" yWindow="36" windowWidth="18180" windowHeight="7176"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,64 +18,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>project 0</t>
-  </si>
-  <si>
-    <t>project 1</t>
-  </si>
-  <si>
-    <t>project 2</t>
-  </si>
-  <si>
-    <t>project 3</t>
-  </si>
-  <si>
-    <t>project 4</t>
-  </si>
-  <si>
-    <t>project 5</t>
-  </si>
-  <si>
-    <t>project 6</t>
-  </si>
-  <si>
-    <t>project 7</t>
-  </si>
-  <si>
-    <t>project 8</t>
-  </si>
-  <si>
-    <t>project 9</t>
-  </si>
-  <si>
-    <t>description 0</t>
-  </si>
-  <si>
-    <t>description 1</t>
-  </si>
-  <si>
-    <t>description 2</t>
-  </si>
-  <si>
-    <t>description 3</t>
-  </si>
-  <si>
-    <t>description 4</t>
-  </si>
-  <si>
-    <t>description 5</t>
-  </si>
-  <si>
-    <t>description 6</t>
-  </si>
-  <si>
-    <t>description 7</t>
-  </si>
-  <si>
-    <t>description 8</t>
-  </si>
-  <si>
-    <t>description 9</t>
+    <t>nameE6NuTu6U</t>
+  </si>
+  <si>
+    <t>name pfTu</t>
+  </si>
+  <si>
+    <t>name0VBMnGwU</t>
+  </si>
+  <si>
+    <t>names KTgmKH</t>
+  </si>
+  <si>
+    <t>name H</t>
+  </si>
+  <si>
+    <t>namePRlV1nsV</t>
+  </si>
+  <si>
+    <t>nameEiL6 ds</t>
+  </si>
+  <si>
+    <t>name hc WeOd</t>
+  </si>
+  <si>
+    <t>namew J6ob</t>
+  </si>
+  <si>
+    <t>name h 44aH6k</t>
+  </si>
+  <si>
+    <t>descriptionkW9Y</t>
+  </si>
+  <si>
+    <t>description0w  0UK JLw19 RGc</t>
+  </si>
+  <si>
+    <t>description1mf</t>
+  </si>
+  <si>
+    <t>descriptionUiJ0k</t>
+  </si>
+  <si>
+    <t>descriptionXnjk8hDHfokBr</t>
+  </si>
+  <si>
+    <t>descriptionTXw14KQaR2</t>
+  </si>
+  <si>
+    <t>description qDJjA</t>
+  </si>
+  <si>
+    <t>description0GgrWh</t>
+  </si>
+  <si>
+    <t>descriptionMs3o  lfs4TUx7rI</t>
+  </si>
+  <si>
+    <t>descriptiondv HZwi</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -503,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -525,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
